--- a/output/card_list.xlsx
+++ b/output/card_list.xlsx
@@ -514,11 +514,7 @@
           <t>https://www.tcdb.com/Team.cfm/tid/6578/Rock-Island-Wapellos</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.tcdb.com/ViewCard.cfm/sid/231617/cid/14531345/1866-Newberry-&amp;-Solanders-NNO-Alvin-Dart-/-Edgar-Gleim-/-William-Harper?PageIndex=1</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -619,11 +615,7 @@
           <t>https://www.tcdb.com/Team.cfm/tid/6578/Rock-Island-Wapellos</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.tcdb.com/ViewCard.cfm/sid/231617/cid/14531352/1866-Newberry-&amp;-Solanders-NNO-Baseball-Trophies?PageIndex=1</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
